--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/中间使用.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/中间使用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1652059064.54973</v>
+        <v>8489958967.71997</v>
       </c>
       <c r="C2" t="n">
-        <v>71174236.13590001</v>
+        <v>407085036.037674</v>
       </c>
       <c r="D2" t="n">
-        <v>18584437.69731</v>
+        <v>202785942.118562</v>
       </c>
       <c r="E2" t="n">
-        <v>139838717.0464</v>
+        <v>539129077.4360369</v>
       </c>
       <c r="F2" t="n">
-        <v>499195924.428958</v>
+        <v>1910089275.57013</v>
       </c>
       <c r="G2" t="n">
-        <v>208131305.5</v>
+        <v>924998465.624218</v>
       </c>
       <c r="H2" t="n">
-        <v>146055093.361634</v>
+        <v>552918608.844214</v>
       </c>
       <c r="I2" t="n">
-        <v>923468766.945944</v>
+        <v>4036489753.21218</v>
       </c>
       <c r="J2" t="n">
-        <v>13625412.9</v>
+        <v>34637690.0370368</v>
       </c>
       <c r="K2" t="n">
-        <v>2575527831.49567</v>
+        <v>12526448720.9322</v>
       </c>
       <c r="L2" t="n">
-        <v>60376844.42</v>
+        <v>225315635.329421</v>
       </c>
       <c r="M2" t="n">
-        <v>109460384.27</v>
+        <v>371756337.158794</v>
       </c>
       <c r="N2" t="n">
-        <v>279946914.32</v>
+        <v>1440636708.31276</v>
       </c>
       <c r="O2" t="n">
-        <v>86260522.34810001</v>
+        <v>314235148.564621</v>
       </c>
       <c r="P2" t="n">
-        <v>134124280.967027</v>
+        <v>599108469.677736</v>
       </c>
       <c r="Q2" t="n">
-        <v>80251907.59999999</v>
+        <v>445851490.032909</v>
       </c>
       <c r="R2" t="n">
-        <v>100462099.95</v>
+        <v>335848893.028417</v>
       </c>
       <c r="S2" t="n">
-        <v>144093468.188325</v>
+        <v>974373399.1200939</v>
       </c>
       <c r="T2" t="n">
-        <v>85377507.01000001</v>
+        <v>524657443.256675</v>
       </c>
       <c r="U2" t="n">
-        <v>88334342.86201499</v>
+        <v>663736823.87886</v>
       </c>
       <c r="V2" t="n">
-        <v>161856013.77</v>
+        <v>1056128304.47317</v>
       </c>
       <c r="W2" t="n">
-        <v>39306785.8</v>
+        <v>250133409.204995</v>
       </c>
       <c r="X2" t="n">
-        <v>55524892.17</v>
+        <v>393486146.018281</v>
       </c>
       <c r="Y2" t="n">
-        <v>53546740.75</v>
+        <v>359536417.207537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1915715975.85692</v>
+        <v>10648269124.9178</v>
       </c>
       <c r="C3" t="n">
-        <v>107608842.189104</v>
+        <v>443393104.03841</v>
       </c>
       <c r="D3" t="n">
-        <v>45352796.6710075</v>
+        <v>326420454.591142</v>
       </c>
       <c r="E3" t="n">
-        <v>163387352.098314</v>
+        <v>652497635.048739</v>
       </c>
       <c r="F3" t="n">
-        <v>589504992.623314</v>
+        <v>2641340939.19594</v>
       </c>
       <c r="G3" t="n">
-        <v>210343221.384141</v>
+        <v>1174689653.7133</v>
       </c>
       <c r="H3" t="n">
-        <v>187405671.645101</v>
+        <v>716819825.363068</v>
       </c>
       <c r="I3" t="n">
-        <v>1218589041.00164</v>
+        <v>5368001709.49285</v>
       </c>
       <c r="J3" t="n">
-        <v>18414894.1826036</v>
+        <v>86611543.45508219</v>
       </c>
       <c r="K3" t="n">
-        <v>3134305016.85856</v>
+        <v>16016270834.4107</v>
       </c>
       <c r="L3" t="n">
-        <v>101889027.847732</v>
+        <v>426270498.05713</v>
       </c>
       <c r="M3" t="n">
-        <v>141317694.375071</v>
+        <v>545080436.8382061</v>
       </c>
       <c r="N3" t="n">
-        <v>305592312.771073</v>
+        <v>1525366718.30481</v>
       </c>
       <c r="O3" t="n">
-        <v>62947315.5313734</v>
+        <v>406698562.456018</v>
       </c>
       <c r="P3" t="n">
-        <v>174622113.359537</v>
+        <v>736062252.542743</v>
       </c>
       <c r="Q3" t="n">
-        <v>74280114.64511719</v>
+        <v>468215274.841752</v>
       </c>
       <c r="R3" t="n">
-        <v>81509752.05774461</v>
+        <v>401508915.857224</v>
       </c>
       <c r="S3" t="n">
-        <v>267056263.373687</v>
+        <v>1273778692.3911</v>
       </c>
       <c r="T3" t="n">
-        <v>109204779.630278</v>
+        <v>599415675.607898</v>
       </c>
       <c r="U3" t="n">
-        <v>105916123.998709</v>
+        <v>774519692.268337</v>
       </c>
       <c r="V3" t="n">
-        <v>211073326.416666</v>
+        <v>1404758061.59439</v>
       </c>
       <c r="W3" t="n">
-        <v>63077584.2358906</v>
+        <v>485726112.797026</v>
       </c>
       <c r="X3" t="n">
-        <v>52471743.2601537</v>
+        <v>444607444.118576</v>
       </c>
       <c r="Y3" t="n">
-        <v>61329094.5619474</v>
+        <v>482489341.329761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3605086484.9471</v>
+        <v>14011923983.1906</v>
       </c>
       <c r="C4" t="n">
-        <v>178975273.100293</v>
+        <v>591120933.447089</v>
       </c>
       <c r="D4" t="n">
-        <v>93820727.0315799</v>
+        <v>504095156.013298</v>
       </c>
       <c r="E4" t="n">
-        <v>272196297.10768</v>
+        <v>875920640.395579</v>
       </c>
       <c r="F4" t="n">
-        <v>777315982.919499</v>
+        <v>3541099851.97701</v>
       </c>
       <c r="G4" t="n">
-        <v>410415533.604664</v>
+        <v>1523448705.35557</v>
       </c>
       <c r="H4" t="n">
-        <v>280102891.798793</v>
+        <v>865089218.4795049</v>
       </c>
       <c r="I4" t="n">
-        <v>1862560591.68921</v>
+        <v>6802541161.3069</v>
       </c>
       <c r="J4" t="n">
-        <v>35438769.4779978</v>
+        <v>126172684.599139</v>
       </c>
       <c r="K4" t="n">
-        <v>5467647076.63632</v>
+        <v>20814465144.4975</v>
       </c>
       <c r="L4" t="n">
-        <v>112416436.884327</v>
+        <v>747489553.220201</v>
       </c>
       <c r="M4" t="n">
-        <v>218525493.437628</v>
+        <v>824731077.002341</v>
       </c>
       <c r="N4" t="n">
-        <v>569588251.293027</v>
+        <v>2067432169.01104</v>
       </c>
       <c r="O4" t="n">
-        <v>140121678.481146</v>
+        <v>412508395.593561</v>
       </c>
       <c r="P4" t="n">
-        <v>253376438.039368</v>
+        <v>822747797.255918</v>
       </c>
       <c r="Q4" t="n">
-        <v>170606770.257314</v>
+        <v>595776871.860791</v>
       </c>
       <c r="R4" t="n">
-        <v>142972546.450893</v>
+        <v>529031323.522945</v>
       </c>
       <c r="S4" t="n">
-        <v>551765278.931555</v>
+        <v>1573604293.59447</v>
       </c>
       <c r="T4" t="n">
-        <v>270539979.71226</v>
+        <v>889768711.2690589</v>
       </c>
       <c r="U4" t="n">
-        <v>254484545.527783</v>
+        <v>692125596.131642</v>
       </c>
       <c r="V4" t="n">
-        <v>415056274.755637</v>
+        <v>1556854293.32319</v>
       </c>
       <c r="W4" t="n">
-        <v>76537219.0768138</v>
+        <v>722643898.128247</v>
       </c>
       <c r="X4" t="n">
-        <v>131021866.849325</v>
+        <v>632122240.58701</v>
       </c>
       <c r="Y4" t="n">
-        <v>112368821.898734</v>
+        <v>720681733.72992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5528151508.84222</v>
+        <v>14345178227.9634</v>
       </c>
       <c r="C5" t="n">
-        <v>287127772.023387</v>
+        <v>118714336.372438</v>
       </c>
       <c r="D5" t="n">
-        <v>139473404.698272</v>
+        <v>1165063889.79875</v>
       </c>
       <c r="E5" t="n">
-        <v>343439679.452163</v>
+        <v>850668733.443814</v>
       </c>
       <c r="F5" t="n">
-        <v>1100473000.38767</v>
-      </c>
-      <c r="G5" t="n">
-        <v>615669425.879836</v>
-      </c>
+        <v>4232680280.26867</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>372555322.060204</v>
+        <v>1103253277.16368</v>
       </c>
       <c r="I5" t="n">
-        <v>2660438110.87223</v>
+        <v>8232157064.39599</v>
       </c>
       <c r="J5" t="n">
-        <v>19999561.5322414</v>
+        <v>105001688.480753</v>
       </c>
       <c r="K5" t="n">
-        <v>8188589619.71445</v>
-      </c>
-      <c r="L5" t="n">
-        <v>128550119.557099</v>
-      </c>
-      <c r="M5" t="n">
-        <v>232189005.618121</v>
-      </c>
+        <v>22577335292.3594</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>945124876.55994</v>
+        <v>2127735641.46084</v>
       </c>
       <c r="O5" t="n">
-        <v>225675254.800894</v>
+        <v>1798928255.35725</v>
       </c>
       <c r="P5" t="n">
-        <v>385187232.742666</v>
+        <v>949786044.0674011</v>
       </c>
       <c r="Q5" t="n">
-        <v>312038601.640617</v>
+        <v>571517957.915212</v>
       </c>
       <c r="R5" t="n">
-        <v>244947494.661015</v>
+        <v>462235448.151977</v>
       </c>
       <c r="S5" t="n">
-        <v>802222555.6816911</v>
-      </c>
-      <c r="T5" t="n">
-        <v>306373318.003044</v>
-      </c>
+        <v>1946437462.89624</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>387731968.594068</v>
+        <v>765391594.561144</v>
       </c>
       <c r="V5" t="n">
-        <v>754313116.389593</v>
-      </c>
-      <c r="W5" t="n">
-        <v>145562416.129544</v>
-      </c>
+        <v>1428094316.25991</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>219303113.012598</v>
+        <v>624917040.799005</v>
       </c>
       <c r="Y5" t="n">
-        <v>220632380.289786</v>
+        <v>645606728.741188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8489958967.71997</v>
+        <v>16826058032.7837</v>
       </c>
       <c r="C6" t="n">
-        <v>407085036.037674</v>
+        <v>152431435.218306</v>
       </c>
       <c r="D6" t="n">
-        <v>202785942.118562</v>
+        <v>1490271308.63354</v>
       </c>
       <c r="E6" t="n">
-        <v>539129077.4360369</v>
+        <v>954854691.275501</v>
       </c>
       <c r="F6" t="n">
-        <v>1910089275.57013</v>
-      </c>
-      <c r="G6" t="n">
-        <v>924998465.624218</v>
-      </c>
+        <v>5295655400.14422</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>552918608.844214</v>
+        <v>1505819759.27118</v>
       </c>
       <c r="I6" t="n">
-        <v>4036489753.21218</v>
+        <v>10164220012.6486</v>
       </c>
       <c r="J6" t="n">
-        <v>34637690.0370368</v>
+        <v>149992642.24793</v>
       </c>
       <c r="K6" t="n">
-        <v>12526448720.9322</v>
-      </c>
-      <c r="L6" t="n">
-        <v>225315635.329421</v>
-      </c>
-      <c r="M6" t="n">
-        <v>371756337.158794</v>
-      </c>
+        <v>26990278045.4323</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1440636708.31276</v>
+        <v>2377973055.6473</v>
       </c>
       <c r="O6" t="n">
-        <v>314235148.564621</v>
+        <v>1852769187.36812</v>
       </c>
       <c r="P6" t="n">
-        <v>599108469.677736</v>
+        <v>895802230.037867</v>
       </c>
       <c r="Q6" t="n">
-        <v>445851490.032909</v>
+        <v>702649886.809204</v>
       </c>
       <c r="R6" t="n">
-        <v>335848893.028417</v>
+        <v>473004868.411237</v>
       </c>
       <c r="S6" t="n">
-        <v>974373399.1200939</v>
-      </c>
-      <c r="T6" t="n">
-        <v>524657443.256675</v>
-      </c>
+        <v>2466942623.19533</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>663736823.87886</v>
+        <v>845044538.1041189</v>
       </c>
       <c r="V6" t="n">
-        <v>1056128304.47317</v>
-      </c>
-      <c r="W6" t="n">
-        <v>250133409.204995</v>
-      </c>
+        <v>1665980317.16647</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>393486146.018281</v>
+        <v>703287051.982929</v>
       </c>
       <c r="Y6" t="n">
-        <v>359536417.207537</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10648269124.9178</v>
-      </c>
-      <c r="C7" t="n">
-        <v>443393104.03841</v>
-      </c>
-      <c r="D7" t="n">
-        <v>326420454.591142</v>
-      </c>
-      <c r="E7" t="n">
-        <v>652497635.048739</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2641340939.19594</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1174689653.7133</v>
-      </c>
-      <c r="H7" t="n">
-        <v>716819825.363068</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5368001709.49285</v>
-      </c>
-      <c r="J7" t="n">
-        <v>86611543.45508219</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16016270834.4107</v>
-      </c>
-      <c r="L7" t="n">
-        <v>426270498.05713</v>
-      </c>
-      <c r="M7" t="n">
-        <v>545080436.8382061</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1525366718.30481</v>
-      </c>
-      <c r="O7" t="n">
-        <v>406698562.456018</v>
-      </c>
-      <c r="P7" t="n">
-        <v>736062252.542743</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>468215274.841752</v>
-      </c>
-      <c r="R7" t="n">
-        <v>401508915.857224</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1273778692.3911</v>
-      </c>
-      <c r="T7" t="n">
-        <v>599415675.607898</v>
-      </c>
-      <c r="U7" t="n">
-        <v>774519692.268337</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1404758061.59439</v>
-      </c>
-      <c r="W7" t="n">
-        <v>485726112.797026</v>
-      </c>
-      <c r="X7" t="n">
-        <v>444607444.118576</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>482489341.329761</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14011923983.1906</v>
-      </c>
-      <c r="C8" t="n">
-        <v>591120933.447089</v>
-      </c>
-      <c r="D8" t="n">
-        <v>504095156.013298</v>
-      </c>
-      <c r="E8" t="n">
-        <v>875920640.395579</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3541099851.97701</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1523448705.35557</v>
-      </c>
-      <c r="H8" t="n">
-        <v>865089218.4795049</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6802541161.3069</v>
-      </c>
-      <c r="J8" t="n">
-        <v>126172684.599139</v>
-      </c>
-      <c r="K8" t="n">
-        <v>20814465144.4975</v>
-      </c>
-      <c r="L8" t="n">
-        <v>747489553.220201</v>
-      </c>
-      <c r="M8" t="n">
-        <v>824731077.002341</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2067432169.01104</v>
-      </c>
-      <c r="O8" t="n">
-        <v>412508395.593561</v>
-      </c>
-      <c r="P8" t="n">
-        <v>822747797.255918</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>595776871.860791</v>
-      </c>
-      <c r="R8" t="n">
-        <v>529031323.522945</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1573604293.59447</v>
-      </c>
-      <c r="T8" t="n">
-        <v>889768711.2690589</v>
-      </c>
-      <c r="U8" t="n">
-        <v>692125596.131642</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1556854293.32319</v>
-      </c>
-      <c r="W8" t="n">
-        <v>722643898.128247</v>
-      </c>
-      <c r="X8" t="n">
-        <v>632122240.58701</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>720681733.72992</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>14345178227.9634</v>
-      </c>
-      <c r="C9" t="n">
-        <v>118714336.372438</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1165063889.79875</v>
-      </c>
-      <c r="E9" t="n">
-        <v>850668733.443814</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4232680280.26867</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1103253277.16368</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8232157064.39599</v>
-      </c>
-      <c r="J9" t="n">
-        <v>105001688.480753</v>
-      </c>
-      <c r="K9" t="n">
-        <v>22577335292.3594</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>2127735641.46084</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1798928255.35725</v>
-      </c>
-      <c r="P9" t="n">
-        <v>949786044.0674011</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>571517957.915212</v>
-      </c>
-      <c r="R9" t="n">
-        <v>462235448.151977</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1946437462.89624</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>765391594.561144</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1428094316.25991</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>624917040.799005</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>645606728.741188</v>
+        <v>679669137.639768</v>
       </c>
     </row>
   </sheetData>
